--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2398259.241200541</v>
+        <v>-2401120.054992833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68.20541781388557</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>159.7133349468274</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>232.01072298284</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>153.2272703875701</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>101.8683649267769</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>9.244034794974537</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>137.6132138146354</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>97.26234557100796</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>125.8900809752255</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>21.02627191808368</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.3534850500222</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>43.57310181702579</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.07036414296866</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815002</v>
+        <v>73.18818411814988</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177535</v>
+        <v>127.8724504177534</v>
       </c>
       <c r="T8" t="n">
         <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>66.42684236889976</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696367</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906611</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>125.6050741394707</v>
+        <v>17.41927898131152</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>192.4848946346714</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169636</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>228.042456773482</v>
       </c>
       <c r="V10" t="n">
-        <v>90.67740508389419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>59.96838802184498</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>33.4849932895302</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>253.630393765991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>80.3196045412455</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>115.2302178375793</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4028,13 +4028,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300.4385797407429</v>
+        <v>634.1670622275105</v>
       </c>
       <c r="C2" t="n">
-        <v>34.06092317356495</v>
+        <v>634.1670622275105</v>
       </c>
       <c r="D2" t="n">
-        <v>34.06092317356495</v>
+        <v>367.7894056603327</v>
       </c>
       <c r="E2" t="n">
-        <v>34.06092317356495</v>
+        <v>367.7894056603327</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>298.8950442321654</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>298.8950442321654</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946884</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946884</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946884</v>
       </c>
       <c r="V2" t="n">
-        <v>566.8162363079209</v>
+        <v>900.5447187946884</v>
       </c>
       <c r="W2" t="n">
-        <v>566.8162363079209</v>
+        <v>634.1670622275105</v>
       </c>
       <c r="X2" t="n">
-        <v>566.8162363079209</v>
+        <v>634.1670622275105</v>
       </c>
       <c r="Y2" t="n">
-        <v>300.4385797407429</v>
+        <v>634.1670622275105</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.8187272956869</v>
+        <v>435.593747889192</v>
       </c>
       <c r="C3" t="n">
         <v>280.8187272956869</v>
@@ -4401,58 +4401,58 @@
         <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>117.4455628004803</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267546</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560892</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T3" t="n">
-        <v>951.9581816961489</v>
+        <v>858.0464416374617</v>
       </c>
       <c r="U3" t="n">
-        <v>723.8223357329624</v>
+        <v>858.0464416374617</v>
       </c>
       <c r="V3" t="n">
-        <v>488.6702275012197</v>
+        <v>858.0464416374617</v>
       </c>
       <c r="W3" t="n">
-        <v>488.6702275012197</v>
+        <v>603.80908490926</v>
       </c>
       <c r="X3" t="n">
-        <v>280.8187272956869</v>
+        <v>603.80908490926</v>
       </c>
       <c r="Y3" t="n">
-        <v>280.8187272956869</v>
+        <v>603.80908490926</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.8069210092332</v>
+        <v>488.2726599955957</v>
       </c>
       <c r="C4" t="n">
-        <v>493.8069210092332</v>
+        <v>488.2726599955957</v>
       </c>
       <c r="D4" t="n">
-        <v>493.8069210092332</v>
+        <v>338.15602058326</v>
       </c>
       <c r="E4" t="n">
-        <v>345.8938274268401</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="F4" t="n">
-        <v>199.0038799289297</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="G4" t="n">
-        <v>30.43451928393316</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H4" t="n">
-        <v>30.43451928393316</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075537</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="U4" t="n">
-        <v>493.8069210092332</v>
+        <v>709.0652391391259</v>
       </c>
       <c r="V4" t="n">
-        <v>493.8069210092332</v>
+        <v>709.0652391391259</v>
       </c>
       <c r="W4" t="n">
-        <v>493.8069210092332</v>
+        <v>709.0652391391259</v>
       </c>
       <c r="X4" t="n">
-        <v>493.8069210092332</v>
+        <v>709.0652391391259</v>
       </c>
       <c r="Y4" t="n">
-        <v>493.8069210092332</v>
+        <v>488.2726599955957</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>833.1938928750985</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>833.1938928750985</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>566.8162363079207</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>833.1938928750985</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>833.1938928750985</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316.5660780344868</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
         <v>167.6316683732355</v>
@@ -4644,52 +4644,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004805</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="W6" t="n">
-        <v>692.5417138195087</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="X6" t="n">
-        <v>692.5417138195087</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="Y6" t="n">
-        <v>484.7814150545548</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434483</v>
+        <v>305.8038243349422</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>305.8038243349422</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>184.234647516738</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4732,43 +4732,43 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>785.373249605427</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V7" t="n">
-        <v>530.6887613995401</v>
+        <v>800.1710318001375</v>
       </c>
       <c r="W7" t="n">
-        <v>264.3111048323622</v>
+        <v>533.7933752329595</v>
       </c>
       <c r="X7" t="n">
-        <v>36.32155393434483</v>
+        <v>305.8038243349422</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434483</v>
+        <v>305.8038243349422</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.518263329328</v>
+        <v>803.5811124312913</v>
       </c>
       <c r="C8" t="n">
-        <v>901.5557463889158</v>
+        <v>803.5811124312913</v>
       </c>
       <c r="D8" t="n">
-        <v>543.2900477821654</v>
+        <v>445.3154138245408</v>
       </c>
       <c r="E8" t="n">
-        <v>543.2900477821654</v>
+        <v>445.3154138245408</v>
       </c>
       <c r="F8" t="n">
-        <v>132.3041429925579</v>
+        <v>438.3699130753374</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4438610970189</v>
+        <v>426.5096311797984</v>
       </c>
       <c r="H8" t="n">
         <v>120.4438610970189</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181695</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229164</v>
+        <v>166.4989367229168</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677493</v>
+        <v>397.0601716677502</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937574</v>
+        <v>719.993533093759</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721576</v>
+        <v>1110.988557721579</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.92409899942</v>
+        <v>1512.924098999423</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830555</v>
+        <v>1879.125171830559</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271722</v>
+        <v>2157.168314271726</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257581</v>
+        <v>2317.794388257586</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590843</v>
+        <v>2325.820119590848</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259779</v>
+        <v>2196.656028259784</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.052678512938</v>
+        <v>1987.052678512943</v>
       </c>
       <c r="U8" t="n">
-        <v>1733.4559429243</v>
+        <v>1987.052678512943</v>
       </c>
       <c r="V8" t="n">
-        <v>1733.4559429243</v>
+        <v>1919.954857938297</v>
       </c>
       <c r="W8" t="n">
-        <v>1733.4559429243</v>
+        <v>1567.186202668183</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.4559429243</v>
+        <v>1193.720444407103</v>
       </c>
       <c r="Y8" t="n">
-        <v>1343.316610948488</v>
+        <v>803.5811124312913</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3005198785846</v>
+        <v>812.4820996906759</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8474905974576</v>
+        <v>638.0290704095489</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9130809362064</v>
+        <v>489.0946607482976</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6756259307509</v>
+        <v>329.8572057428421</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576359</v>
+        <v>183.322647769727</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797258</v>
+        <v>46.51640239181695</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117658</v>
+        <v>46.51640239181695</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181695</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977931</v>
+        <v>99.15933091977956</v>
       </c>
       <c r="K9" t="n">
-        <v>492.3148185169786</v>
+        <v>402.9718154420799</v>
       </c>
       <c r="L9" t="n">
-        <v>764.7088588093927</v>
+        <v>675.3658557344945</v>
       </c>
       <c r="M9" t="n">
-        <v>1101.936724006056</v>
+        <v>1012.593720931159</v>
       </c>
       <c r="N9" t="n">
-        <v>1462.498652257393</v>
+        <v>1373.155649182495</v>
       </c>
       <c r="O9" t="n">
-        <v>1770.12257991828</v>
+        <v>1680.779576843383</v>
       </c>
       <c r="P9" t="n">
-        <v>1997.684836227396</v>
+        <v>2223.619974106037</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.861496570697</v>
+        <v>2325.820119590848</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590843</v>
+        <v>2325.820119590848</v>
       </c>
       <c r="S9" t="n">
-        <v>2198.946307328752</v>
+        <v>2308.224888296594</v>
       </c>
       <c r="T9" t="n">
-        <v>2004.517120829084</v>
+        <v>2113.795701796926</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.517120829084</v>
+        <v>1885.698700641175</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.365012597341</v>
+        <v>1650.546592409432</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.127655869139</v>
+        <v>1396.309235681231</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.276155663606</v>
+        <v>1188.457735475698</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.515856898653</v>
+        <v>980.6974367107439</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>938.5520854032488</v>
+        <v>323.0889955010273</v>
       </c>
       <c r="C10" t="n">
-        <v>769.615902475342</v>
+        <v>323.0889955010273</v>
       </c>
       <c r="D10" t="n">
-        <v>619.4992630630062</v>
+        <v>323.0889955010273</v>
       </c>
       <c r="E10" t="n">
-        <v>619.4992630630062</v>
+        <v>323.0889955010273</v>
       </c>
       <c r="F10" t="n">
-        <v>472.6093155650958</v>
+        <v>323.0889955010273</v>
       </c>
       <c r="G10" t="n">
-        <v>304.5349608815204</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="H10" t="n">
         <v>155.0146408174518</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181695</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909544</v>
+        <v>65.89540801909564</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736017</v>
+        <v>227.5779039736021</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632615</v>
+        <v>490.0022680632621</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794048</v>
+        <v>777.0810884794057</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620619</v>
+        <v>1062.76843262062</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257115</v>
+        <v>1310.630639257116</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325117</v>
+        <v>1499.198894325119</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718231</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600086</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.783439600086</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.783439600086</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.783439600086</v>
+        <v>1315.972783785422</v>
       </c>
       <c r="V10" t="n">
-        <v>1348.190101131506</v>
+        <v>1061.288295579535</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.190101131506</v>
+        <v>771.8711255425748</v>
       </c>
       <c r="X10" t="n">
-        <v>1120.200550233488</v>
+        <v>543.8815746445574</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.200550233488</v>
+        <v>323.0889955010273</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="14">
@@ -5261,28 +5261,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6789,7 +6789,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,19 +6871,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,13 +7023,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,10 +7111,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,13 +7260,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,10 +7497,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,19 +7567,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954142</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380722</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580102</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345464</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069083</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069106</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>227.2984981572691</v>
+        <v>137.0530405058557</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>27.38164655864763</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90.96916161917693</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>154.4802976824406</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>95.74153548729487</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590698</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.35240231727362</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>86.46557462472418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>252.6994810997139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>32.89260457059999</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>145.3900508477917</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>31.20374480898987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1381298.378948196</v>
+        <v>1381298.378948195</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33850.42817886434</v>
+        <v>33850.42817886435</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321417</v>
@@ -26323,37 +26323,37 @@
         <v>40357.32998450032</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="H2" t="n">
+        <v>40357.32998450028</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40357.32998450028</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40357.32998450028</v>
+      </c>
+      <c r="K2" t="n">
         <v>40357.3299845003</v>
       </c>
-      <c r="I2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40357.32998450032</v>
-      </c>
       <c r="L2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321417</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911927</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512984</v>
+        <v>331437.5228512998</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424111</v>
+        <v>563905.7843424099</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201208</v>
+        <v>99845.14336201239</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569557</v>
+        <v>147342.6769569554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167228.5543935669</v>
+        <v>167228.554393567</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>154923.9080077261</v>
+        <v>154923.9080077258</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768934</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768934</v>
+        <v>9947.144321768927</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768941</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486243</v>
       </c>
       <c r="M4" t="n">
         <v>17938.00358486237</v>
       </c>
       <c r="N4" t="n">
+        <v>17938.00358486236</v>
+      </c>
+      <c r="O4" t="n">
         <v>17938.00358486238</v>
       </c>
-      <c r="O4" t="n">
-        <v>17938.00358486237</v>
-      </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543585</v>
+        <v>88290.79546543592</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-876513.9100101619</v>
+        <v>-876873.9930258791</v>
       </c>
       <c r="C6" t="n">
         <v>-271433.6810417565</v>
       </c>
       <c r="D6" t="n">
-        <v>-533600.1378312462</v>
+        <v>-533600.1378312474</v>
       </c>
       <c r="E6" t="n">
-        <v>-634618.1285035867</v>
+        <v>-634652.8664290212</v>
       </c>
       <c r="F6" t="n">
-        <v>-70712.34416117569</v>
+        <v>-70747.08208661139</v>
       </c>
       <c r="G6" t="n">
-        <v>-70712.34416117569</v>
+        <v>-70747.08208661142</v>
       </c>
       <c r="H6" t="n">
-        <v>-70712.34416117572</v>
+        <v>-70747.08208661142</v>
       </c>
       <c r="I6" t="n">
-        <v>-70712.34416117574</v>
+        <v>-70747.08208661144</v>
       </c>
       <c r="J6" t="n">
-        <v>-139711.4985802899</v>
+        <v>-139746.2365057255</v>
       </c>
       <c r="K6" t="n">
-        <v>-70712.34416117574</v>
+        <v>-70747.08208661145</v>
       </c>
       <c r="L6" t="n">
-        <v>-179895.1743075757</v>
+        <v>-179895.174307576</v>
       </c>
       <c r="M6" t="n">
-        <v>-227392.7079025193</v>
+        <v>-227392.7079025189</v>
       </c>
       <c r="N6" t="n">
-        <v>-80050.03094556359</v>
+        <v>-80050.03094556357</v>
       </c>
       <c r="O6" t="n">
         <v>-80050.0309455636</v>
       </c>
       <c r="P6" t="n">
-        <v>-80050.03094556357</v>
+        <v>-80050.0309455636</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896802</v>
+        <v>885.8132865896811</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977108</v>
+        <v>581.4550298977119</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202019</v>
+        <v>271.758272820203</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519936</v>
+        <v>482.1622137519927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962046</v>
+        <v>317.7411498962059</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019376</v>
+        <v>591.2532582019364</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962047</v>
+        <v>317.7411498962056</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019376</v>
+        <v>591.2532582019367</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962046</v>
+        <v>317.7411498962059</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019376</v>
+        <v>591.2532582019364</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>338.6706279278259</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.1716563372738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>19.48122860074568</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>92.97262265809991</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>112.906538729834</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>148.6454166880421</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>268.0105461999996</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>150.2860898188525</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>125.8049021856941</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>184.6564238592207</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>28.26198796819018</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>242.6855286856517</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.6634775205119</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>261.3254161012351</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.83392671696365</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906604</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10.6873491463738</v>
+        <v>118.8731443045329</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
         <v>196.1788263911949</v>
@@ -28065,19 +28065,19 @@
         <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>58.18944340727873</v>
       </c>
       <c r="V10" t="n">
-        <v>161.4602382399338</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29275,22 +29275,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>-4.703835779379907e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>-6.039613253960852e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.632408907794992e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551475</v>
+        <v>3.561058438551479</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381531</v>
+        <v>36.46968973381534</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522559</v>
+        <v>137.287705452256</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490085</v>
+        <v>302.2403836490089</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528926</v>
+        <v>452.979987352893</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417124</v>
+        <v>561.961729541713</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483022</v>
+        <v>625.2907025483029</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368366</v>
+        <v>635.4085598368373</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884904</v>
+        <v>599.9982849884909</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867508</v>
+        <v>512.0846547867512</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561259</v>
+        <v>384.5542494561263</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406593</v>
+        <v>223.6923371406595</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849183</v>
+        <v>81.14761916849191</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475909</v>
+        <v>15.58853331475911</v>
       </c>
       <c r="U8" t="n">
-        <v>0.284884675084118</v>
+        <v>0.2848846750841182</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079689</v>
+        <v>1.905334239079691</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953279</v>
+        <v>18.40151751953281</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234896</v>
+        <v>65.60032358234903</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474368</v>
+        <v>180.012301947437</v>
       </c>
       <c r="K9" t="n">
-        <v>307.669695965776</v>
+        <v>307.6696959657763</v>
       </c>
       <c r="L9" t="n">
-        <v>413.699875024737</v>
+        <v>413.6998750247374</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913756</v>
+        <v>482.7682411913761</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139759</v>
+        <v>495.5456800139764</v>
       </c>
       <c r="O9" t="n">
-        <v>453.327484505947</v>
+        <v>453.3274845059474</v>
       </c>
       <c r="P9" t="n">
-        <v>363.835272373033</v>
+        <v>363.8352723730334</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726986</v>
+        <v>243.2142442726989</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053162</v>
+        <v>118.2978574053163</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799333</v>
+        <v>35.39074781799336</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150148</v>
+        <v>7.679834060150156</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815586</v>
+        <v>0.1253509367815587</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719095</v>
+        <v>1.597368221719097</v>
       </c>
       <c r="H10" t="n">
-        <v>14.2020556440116</v>
+        <v>14.20205564401162</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587972</v>
+        <v>48.03721888587976</v>
       </c>
       <c r="J10" t="n">
-        <v>112.93393327554</v>
+        <v>112.9339332755401</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051821</v>
+        <v>185.5851443051823</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817644</v>
+        <v>237.4850899817647</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191123</v>
+        <v>250.3947295191126</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108868</v>
+        <v>244.440902510887</v>
       </c>
       <c r="O10" t="n">
-        <v>225.78073737535</v>
+        <v>225.7807373753502</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522803</v>
+        <v>193.1944256522805</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750417</v>
+        <v>133.7578062750418</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020584</v>
+        <v>71.82348386020591</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577731</v>
+        <v>27.83777164577734</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527042</v>
+        <v>6.825118765527049</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013257</v>
+        <v>0.08712917573013265</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>537.262354434964</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>574.2721069128561</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127253</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958076</v>
+        <v>181.0986910958075</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223223</v>
+        <v>121.1944791223226</v>
       </c>
       <c r="K8" t="n">
-        <v>232.890136307912</v>
+        <v>232.8901363079125</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717252</v>
+        <v>326.1953145717258</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210295</v>
+        <v>394.9444693210302</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402457</v>
+        <v>405.9954962402464</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668036</v>
+        <v>369.9000735668042</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314812</v>
+        <v>280.8516590314817</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816764</v>
+        <v>162.2485595816768</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527181</v>
+        <v>8.106799326527408</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077015</v>
+        <v>53.17467528077032</v>
       </c>
       <c r="K9" t="n">
-        <v>397.1267551486861</v>
+        <v>306.8812974972731</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448628</v>
+        <v>275.1454952448632</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693573</v>
+        <v>340.6342072693578</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306426</v>
+        <v>364.2039679306431</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615025</v>
+        <v>310.731240061503</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587028</v>
+        <v>548.3236335986403</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225262</v>
+        <v>103.2324701866773</v>
       </c>
       <c r="R9" t="n">
-        <v>18.14002325267307</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886725</v>
+        <v>19.57475315886737</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792992</v>
+        <v>163.3156524792994</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420805</v>
+        <v>265.0751152420808</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809529</v>
+        <v>289.9786064809532</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901154</v>
+        <v>288.5730748901157</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893897</v>
+        <v>250.3658652893899</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171738</v>
+        <v>190.472984917174</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334732</v>
+        <v>47.59576302334746</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>394.6661099905195</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>431.6758624684117</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
